--- a/data/georgia_census/samegrelo/abasha/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/abasha/healthcare_staff.xlsx
@@ -1361,13 +1361,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B0E1EA-5732-4861-88F1-D2A6DCDEFFD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18D9F2E-1106-44B7-A48A-41893A7E9485}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2885F52F-3BB4-4FAC-9A70-FB5AFFB12779}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8785F500-5AA1-4C03-8602-8AB8E15C1827}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4756352F-DDD2-41B7-A9E2-96B62CDF6FBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E47690-0764-4D59-A6DC-FCD144D7DA08}"/>
 </file>